--- a/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/01_ユーザー認証.xlsx
+++ b/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/01_ユーザー認証.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoji\Desktop\機能仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoji\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,9 @@
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
     <sheet name="認証画面" sheetId="3" r:id="rId2"/>
-    <sheet name="Message" sheetId="4" r:id="rId3"/>
+    <sheet name="ログアウト" sheetId="6" r:id="rId3"/>
+    <sheet name="Message" sheetId="4" r:id="rId4"/>
+    <sheet name="改訂履歴" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="112">
   <si>
     <t>ユーザー認証</t>
     <rPh sb="4" eb="6">
@@ -394,10 +396,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>No.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Message Text</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -496,10 +494,6 @@
     <rPh sb="46" eb="47">
       <t>シタ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　→パスワードとIDテキストボックスの背景色を赤にし、入力された内容をリセットする。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -597,6 +591,465 @@
     </rPh>
     <rPh sb="29" eb="30">
       <t>シル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一回レビュー指摘対応</t>
+    <rPh sb="0" eb="3">
+      <t>ダイイッカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当レビュー</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂前</t>
+    <rPh sb="0" eb="3">
+      <t>カイテイマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂後</t>
+    <rPh sb="0" eb="3">
+      <t>カイテイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂内容</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトしました</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト確認用のOKボタン</t>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂分類</t>
+    <rPh sb="0" eb="2">
+      <t>カイテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→パスワードとIDテキストボックスの背景色を赤にし、エラーメッセージを表示する、そして入力された内容をリセットする。メッセージは[Message]シートA-4に記載する。[A-4](改訂A-1)</t>
+    <rPh sb="93" eb="95">
+      <t>カイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(*1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(*1)ボタンが押下された場合は、認証画面に遷移する。</t>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒーチケット管理システム(共通画面)のログアウトボタン押下時にログアウト完了確認を行うための画面である。</t>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)共通画面のログアウトボタンが押下された場合、ログアウト画面に遷移する。画面内容は以下の通りである。</t>
+    <rPh sb="3" eb="5">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト(改訂A-3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 　　(*4)アクセストークンのセッション終了について(改訂A-2)</t>
+    <rPh sb="21" eb="23">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1)アクセストークンのセッションが切れた場合、メッセージを表示し、認証画面に遷移する。</t>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションタイムアウトです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Caution</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.アクセストークンのセッションが切れた場合に表示する。
+2.OKを押下すると認証画面に遷移する。
+</t>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ログアウト]
+シート追加。</t>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[ログアウト]
+-
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[認証画面]シート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→メッセージは[Message]シートA-5に記載する。[A-5]</t>
+    <rPh sb="25" eb="27">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[認証画面]シート
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[認証画面]
+[Message]
+記載無し
+</t>
+    <rPh sb="17" eb="19">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[認証画面]
+「パスワードとIDテキストボックスの背景色を赤にし、入力された内容をリセットする。」
+[Message]
+記載なし
+</t>
+    <rPh sb="1" eb="3">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.入力されたIDとパスワード情報が登録されているIDとパスワード情報と関係性がなく、ログインを押下した場合に表示する。
+</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改訂A-1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[認証画面]
+「パスワードとIDテキストボックスの背景色を赤にし、エラーメッセージを表示する、そして入力された内容をリセットする。メッセージは[Message]シートA-4に記載する。[A-4]」
+[Message]
+「入力されたID及びパスワードが異なります。」行追加。
+</t>
+    <rPh sb="133" eb="134">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改訂A-2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[認証画面]
+アクセストークンのセッションについて追記。
+[Message]
+「セッションタイムアウトです。」行追加。</t>
+    <rPh sb="25" eb="27">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[Message]
+「入力されたID及びパスワードが異なります。」
+</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第二回レビュー指摘対応</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Message]
+「入力されたIDまたはパスワードが異なります。」文言修正</t>
+    <rPh sb="34" eb="36">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力されたIDまたはパスワードが異なります。(改訂B-1)</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -631,15 +1084,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -675,13 +1134,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,9 +1229,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -723,6 +1240,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,10 +1622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1126,7 +1703,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
-        <f t="shared" ref="B9:B12" si="0">ROW()-6</f>
+        <f>ROW()-6</f>
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1141,7 +1718,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-6</f>
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1156,7 +1733,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-6</f>
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1166,12 +1743,12 @@
         <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
-        <f t="shared" si="0"/>
+        <f>ROW()-6</f>
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1181,12 +1758,12 @@
         <v>21</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1210,7 +1787,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1229,7 +1806,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1238,13 +1815,13 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="B21" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -1256,7 +1833,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1266,7 +1843,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1283,7 +1860,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1361,8 +1938,47 @@
         <v>36</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>63</v>
-      </c>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1373,23 +1989,116 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="19" customWidth="1"/>
+    <col min="2" max="2" width="9" style="19"/>
+    <col min="3" max="3" width="16.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B6" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" s="23">
+        <v>1</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="23">
+        <v>2</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="49.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -1397,6 +2106,9 @@
         <v>39</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B2" s="13"/>
+    </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>40</v>
@@ -1408,89 +2120,256 @@
         <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>47</v>
+      <c r="E4" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="B5" s="9">
-        <v>2</v>
+      <c r="B5" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>57</v>
+    <row r="7" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="B7" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="27.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="162" x14ac:dyDescent="0.15">
+      <c r="B4" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="14">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="18">
+        <v>42859</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="108" x14ac:dyDescent="0.15">
+      <c r="B5" s="29"/>
+      <c r="C5" s="16">
+        <v>2</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="24">
+        <v>42859</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="29"/>
+      <c r="C6" s="16">
+        <v>3</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="24">
+        <v>42859</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="108" x14ac:dyDescent="0.15">
+      <c r="B7" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="24">
+        <v>42861</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/01_ユーザー認証.xlsx
+++ b/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/01_ユーザー認証.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoji\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoji\Documents\TeamCafeAuLait\01_document\04_ソフトウェア実装プロセス\01_ソフトウェア要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
     <sheet name="認証画面" sheetId="3" r:id="rId2"/>
     <sheet name="ログアウト" sheetId="6" r:id="rId3"/>
-    <sheet name="Message" sheetId="4" r:id="rId4"/>
-    <sheet name="改訂履歴" sheetId="5" r:id="rId5"/>
+    <sheet name="カード認証" sheetId="7" r:id="rId4"/>
+    <sheet name="Message" sheetId="4" r:id="rId5"/>
+    <sheet name="改訂履歴" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="171">
   <si>
     <t>ユーザー認証</t>
     <rPh sb="4" eb="6">
@@ -1052,6 +1053,654 @@
       <t>コト</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*セッション切れについて</t>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三回レビュー指摘対応</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[認証画面]
+記載なし
+</t>
+    <rPh sb="1" eb="3">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[認証画面]
+セッションタイムアウト時の自動ログアウトの動作についての追記。</t>
+    <rPh sb="18" eb="19">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)画面遷移の仕様について</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーがログアウトボタンを押さずに動作を終了させた場合、このシステムは5分で自動的にログアウトを行う。(改訂C-1)</t>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面を遷移しても、ログアウトは常に表示されるようにする。（ユーザーのログアウトのタイミングは多様であるため)(改訂C-2)</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>タヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[ログアウト]
+記載なし
+</t>
+    <rPh sb="8" eb="10">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ログアウト]
+ログアウトの仕様についての追記。</t>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードでログインする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード認証するためのボタン</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改訂C-3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(*5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 　　(*5)カード認証の仕様について(改訂C-3)</t>
+    <rPh sb="10" eb="12">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[カード認証]に記載。</t>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード認証(改訂C-3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証画面で「カードでログインする」ボタンが押下された際に遷移する画面である。</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要求</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインする際のパスワード入力が手間をなくして欲しい。</t>
+    <rPh sb="6" eb="7">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テマ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードをかざしてください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(*1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①カード認証画面に遷移した時から上記メッセージを表示する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(*1)上記メッセージの仕様について</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②カード認証受付時間内にカードがかざされなかった場合</t>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ウケツケ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・カード認証受付時間は1分とする。</t>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ウケツケ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④カードのデータ取得に成功した場合</t>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③カードのデータ取得に失敗した場合</t>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→メッセージを表示し、メッセージ内のOKボタンが押下された時、上記表No1のメッセージを再表示する。</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>サイヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1分間カードがかざされなかった場合のメッセージについては[Message]シートA-6に記載する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→メッセージを表示し、メッセージ内のOKボタンが押下された時、上記表No1のメッセージを再表示する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの取得に失敗した場合のメッセージについては[Message]シートA-7に記載する。</t>
+    <rPh sb="40" eb="42">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→メッセージを表示し、メッセージ内のOKボタンが押下された時、共通画面に遷移する。</t>
+    <rPh sb="31" eb="33">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードのデータ取得に成功した場合のメッセージについては[Message]シートA-8に記載する。</t>
+    <rPh sb="43" eb="45">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤カードのデータと登録データに一致が見つからなかった場合</t>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードのデータと登録データに一致が見つからなかった場合のメッセージについては[Message]シートA-9に記載する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[カード認証]
+-
+</t>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[カード認証]
+新規シート追加。</t>
+    <rPh sb="8" eb="10">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改訂C-3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改訂C-3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(改訂C-3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証受付時間が過ぎました。</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウケツケ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードのデータを正常に取得できませんでした。</t>
+    <rPh sb="8" eb="10">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードのデータを正常に取得できました。ログインします。</t>
+    <rPh sb="8" eb="10">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されていないユーザーです。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.カード認証画面で1分間認証処理が行われなかった場合、表示する。
+2.OKを押下するとカード認証受付に戻る。
+</t>
+    <rPh sb="5" eb="7">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フンカン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ウケツケ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.カードのデータ取得が不正出会った場合、表示する。
+2.OKを押下するとカード認証受付に戻る。
+</t>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>デア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.カードのデータ取得処理が正常に行われた場合に表示する。
+2.OKを押下すると共通画面に遷移し、ログインが正常に行われる。
+</t>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.登録したユーザーとカードの情報に一致がなかった場合に表示する。
+2.OKを押下するとカード認証受付に戻る。
+</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→メッセージを表示し、メッセージ内のOKボタンが押下された時、記表No1のメッセージを再表示する。</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>サイヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[カード認証]シート</t>
+  </si>
+  <si>
+    <t>[カード認証]シート</t>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[カード認証]シート
+</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1733,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1097,8 +1746,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1195,13 +1850,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1292,14 +1956,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1622,10 +2292,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1761,18 +2431,28 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="23">
+        <f>ROW()-6</f>
+        <v>7</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1781,22 +2461,22 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1805,36 +2485,34 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="19" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1843,7 +2521,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1852,6 +2530,9 @@
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -1859,9 +2540,6 @@
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -1869,6 +2547,9 @@
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -1876,9 +2557,6 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B28" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -1886,6 +2564,9 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B29" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1893,92 +2574,132 @@
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C30" s="7"/>
-      <c r="D30" s="3" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C31" s="7"/>
+      <c r="D31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C31" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C33" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34" s="19" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="19"/>
       <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="19"/>
-      <c r="B36" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="19"/>
       <c r="B37" s="19" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B44" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1989,10 +2710,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2005,27 +2726,27 @@
     <col min="6" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
@@ -2042,7 +2763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="23">
         <v>1</v>
       </c>
@@ -2056,7 +2777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="23">
         <v>2</v>
       </c>
@@ -2070,10 +2791,36 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12" s="19" t="s">
         <v>83</v>
       </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2083,10 +2830,163 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="19"/>
+    <col min="3" max="3" width="21.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" s="23">
+        <v>1</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B31" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2235,25 +3135,117 @@
         <v>104</v>
       </c>
     </row>
+    <row r="9" spans="1:8" ht="54" x14ac:dyDescent="0.15">
+      <c r="B9" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G7"/>
+  <dimension ref="B2:G10"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.875" customWidth="1"/>
     <col min="7" max="7" width="27.625" customWidth="1"/>
   </cols>
@@ -2271,10 +3263,10 @@
       <c r="E2" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="31"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="16"/>
@@ -2289,7 +3281,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="162" x14ac:dyDescent="0.15">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>109</v>
       </c>
       <c r="C4" s="14">
@@ -2362,6 +3354,66 @@
       </c>
       <c r="G7" s="22" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="16">
+        <v>1</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="24">
+        <v>42875</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="16">
+        <v>2</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="24">
+        <v>42875</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="16">
+        <v>3</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="24">
+        <v>42875</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/01_ユーザー認証.xlsx
+++ b/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/01_ユーザー認証.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoji\Documents\TeamCafeAuLait\01_document\04_ソフトウェア実装プロセス\01_ソフトウェア要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\13.Git\TeamCafeAuLait\01_document\04_ソフトウェア実装プロセス\01_ソフトウェア要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Message" sheetId="4" r:id="rId5"/>
     <sheet name="改訂履歴" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="170">
   <si>
     <t>ユーザー認証</t>
     <rPh sb="4" eb="6">
@@ -410,10 +410,6 @@
   </si>
   <si>
     <t>Link</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Discrimination</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1422,26 +1418,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>→メッセージを表示し、メッセージ内のOKボタンが押下された時、共通画面に遷移する。</t>
-    <rPh sb="31" eb="33">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カードのデータ取得に成功した場合のメッセージについては[Message]シートA-8に記載する。</t>
-    <rPh sb="43" eb="45">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>⑤カードのデータと登録データに一致が見つからなかった場合</t>
     <rPh sb="9" eb="11">
       <t>トウロク</t>
@@ -1490,15 +1466,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A-8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>A-9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(改訂C-3)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1527,16 +1495,6 @@
   </si>
   <si>
     <t>カードのデータを正常に取得できませんでした。</t>
-    <rPh sb="8" eb="10">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カードのデータを正常に取得できました。ログインします。</t>
     <rPh sb="8" eb="10">
       <t>セイジョウ</t>
     </rPh>
@@ -1604,45 +1562,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">1.カードのデータ取得処理が正常に行われた場合に表示する。
-2.OKを押下すると共通画面に遷移し、ログインが正常に行われる。
-</t>
-    <rPh sb="9" eb="11">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">1.登録したユーザーとカードの情報に一致がなかった場合に表示する。
 2.OKを押下するとカード認証受付に戻る。
 </t>
@@ -1699,14 +1618,84 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">[カード認証]シート
-</t>
+    <t>→共通画面に遷移する。</t>
+    <rPh sb="1" eb="3">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[カード認証]
+④カードのデータ取得に成功した場合
+→メッセージを表示し、メッセージ内のOKボタンが押下された時、共通画面に遷移する。
+カードのデータ取得に成功した場合のメッセージについては[Message]シートA-8に記載する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Discrimination</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[認証画面]
+[ログアウト]
+[カード認証]
+画面のスクリーンショット追加。</t>
+    <rPh sb="1" eb="3">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[カード認証]
+④カードのデータ取得に成功した場合
+→共通画面に遷移する。
+[Message]
+Discrimination:A-8削除。</t>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1959,16 +1948,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1986,6 +1975,173 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>315214</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>36671</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7759700"/>
+          <a:ext cx="18285714" cy="11428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>235839</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>157321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18891250"/>
+          <a:ext cx="18285714" cy="11428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>373829</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>135341</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2823308"/>
+          <a:ext cx="18285714" cy="11428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>565479</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>88218</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5259294"/>
+          <a:ext cx="18285714" cy="11428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2253,32 +2409,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2294,38 +2448,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="31.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2342,7 +2494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -2356,9 +2508,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
-        <f>ROW()-6</f>
+        <f t="shared" ref="B8:B13" si="0">ROW()-6</f>
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2371,9 +2523,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -2386,9 +2538,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -2401,9 +2553,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -2413,12 +2565,12 @@
         <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -2428,30 +2580,30 @@
         <v>21</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="23">
-        <f>ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C13" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="E13" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2460,7 +2612,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2468,14 +2620,14 @@
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2484,7 +2636,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2492,9 +2644,9 @@
       <c r="F20" s="4"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -2502,9 +2654,9 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
@@ -2512,16 +2664,16 @@
       <c r="F22" s="20"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -2529,9 +2681,9 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -2539,16 +2691,16 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -2556,14 +2708,14 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
@@ -2573,14 +2725,14 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C31" s="7"/>
       <c r="D31" s="3" t="s">
         <v>25</v>
@@ -2595,7 +2747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C32" s="7" t="s">
         <v>29</v>
       </c>
@@ -2612,7 +2764,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C33" s="7" t="s">
         <v>33</v>
       </c>
@@ -2626,12 +2778,12 @@
         <v>36</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
@@ -2640,16 +2792,16 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
@@ -2657,10 +2809,10 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
@@ -2668,25 +2820,25 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B40" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B41" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
@@ -2695,9 +2847,9 @@
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B44" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44" s="19"/>
     </row>
@@ -2705,6 +2857,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2712,41 +2865,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="19" customWidth="1"/>
     <col min="2" max="2" width="9" style="19"/>
-    <col min="3" max="3" width="16.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
@@ -2763,113 +2916,112 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="23">
         <v>1</v>
       </c>
       <c r="C9" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>76</v>
       </c>
       <c r="E9" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="23">
         <v>2</v>
       </c>
       <c r="C10" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>78</v>
-      </c>
       <c r="E10" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="19"/>
-    <col min="3" max="3" width="21.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="25" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>5</v>
       </c>
@@ -2886,130 +3038,124 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="23">
         <v>1</v>
       </c>
       <c r="C10" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="E10" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="23" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="19" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="19" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="19" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="19" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="19" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="19" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" s="19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B31" s="19" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="49.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.08984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="13"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>40</v>
       </c>
@@ -3026,205 +3172,182 @@
         <v>43</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="52" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="52" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="52" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="52" x14ac:dyDescent="0.2">
+      <c r="B7" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="52" x14ac:dyDescent="0.2">
+      <c r="B8" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="52" x14ac:dyDescent="0.2">
+      <c r="B9" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
+      <c r="E9" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="39" x14ac:dyDescent="0.2">
+      <c r="B10" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="B6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="B7" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="23" t="s">
+      <c r="D10" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="23" t="s">
+      <c r="E10" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="65" x14ac:dyDescent="0.2">
+      <c r="B11" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="B9" s="23" t="s">
+      <c r="D11" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="G9" s="28" t="s">
+      <c r="F11" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>152</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3235,185 +3358,221 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G10"/>
+  <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" customWidth="1"/>
-    <col min="7" max="7" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.90625" customWidth="1"/>
+    <col min="7" max="7" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>80</v>
-      </c>
       <c r="D2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F2" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="162" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="2:7" ht="156" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="14">
         <v>1</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="18">
         <v>42859</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="108" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="104" x14ac:dyDescent="0.2">
       <c r="B5" s="29"/>
       <c r="C5" s="16">
         <v>2</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="24">
         <v>42859</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="91" x14ac:dyDescent="0.2">
       <c r="B6" s="29"/>
       <c r="C6" s="16">
         <v>3</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="24">
         <v>42859</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="108" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="104" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="16">
         <v>1</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="24">
         <v>42861</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="91" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="16">
         <v>1</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" s="24">
         <v>42875</v>
       </c>
       <c r="F8" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="2:7" ht="91" x14ac:dyDescent="0.2">
       <c r="B9" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="16">
         <v>2</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E9" s="24">
         <v>42875</v>
       </c>
       <c r="F9" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="2:7" ht="91" x14ac:dyDescent="0.2">
       <c r="B10" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="16">
         <v>3</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" s="24">
         <v>42875</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>151</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="143" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="24">
+        <v>42903</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="52" x14ac:dyDescent="0.2">
+      <c r="B12" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="16">
+        <v>2</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="24">
+        <v>42903</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/01_ユーザー認証.xlsx
+++ b/01_document/04_ソフトウェア実装プロセス/01_ソフトウェア要件定義/01_ユーザー認証.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\13.Git\TeamCafeAuLait\01_document\04_ソフトウェア実装プロセス\01_ソフトウェア要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoji\Documents\TeamCafeAuLait\01_document\04_ソフトウェア実装プロセス\01_ソフトウェア要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Message" sheetId="4" r:id="rId5"/>
     <sheet name="改訂履歴" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="174">
   <si>
     <t>ユーザー認証</t>
     <rPh sb="4" eb="6">
@@ -676,13 +676,6 @@
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　→パスワードとIDテキストボックスの背景色を赤にし、エラーメッセージを表示する、そして入力された内容をリセットする。メッセージは[Message]シートA-4に記載する。[A-4](改訂A-1)</t>
-    <rPh sb="93" eb="95">
-      <t>カイテイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1635,10 +1628,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>改訂D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[カード認証]
 ④カードのデータ取得に成功した場合
 →メッセージを表示し、メッセージ内のOKボタンが押下された時、共通画面に遷移する。
@@ -1691,11 +1680,80 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>第四回レビュー指摘対応</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヨン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第五回レビュー指摘対応</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[認証画面]
+「パスワードとIDテキストボックスの背景色を赤にし、エラーメッセージを表示する、そして入力された内容をリセットする。」
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[認証画面]
+「パスワードとIDテキストボックスの背景色を赤にし、エラーメッセージを表示するが、入力されたIDとパスワードはそのままにする。」</t>
+    <rPh sb="1" eb="3">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→パスワードとIDテキストボックスの背景色を赤にし、エラーメッセージを表示するが、入力されたIDとパスワードはそのままにする。メッセージは[Message]シートA-4に記載する。[A-4](改訂A-1)(改訂E-1)</t>
+    <rPh sb="98" eb="100">
+      <t>カイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1994,7 +2052,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2032,7 +2096,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2075,7 +2145,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2118,7 +2194,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2409,30 +2491,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2448,36 +2532,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F20" sqref="F19:F20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="31.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.25" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2494,7 +2580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="3">
         <v>1</v>
       </c>
@@ -2508,7 +2594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <f t="shared" ref="B8:B13" si="0">ROW()-6</f>
         <v>2</v>
@@ -2523,7 +2609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2538,7 +2624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2553,7 +2639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2568,7 +2654,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2583,25 +2669,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C13" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="E13" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>65</v>
       </c>
@@ -2612,7 +2698,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2620,12 +2706,12 @@
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
@@ -2636,7 +2722,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2644,7 +2730,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
@@ -2654,24 +2740,24 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B22" s="19" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>59</v>
       </c>
@@ -2681,7 +2767,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
         <v>61</v>
       </c>
@@ -2691,14 +2777,14 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>67</v>
       </c>
@@ -2708,14 +2794,14 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
@@ -2725,14 +2811,14 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C31" s="7"/>
       <c r="D31" s="3" t="s">
         <v>25</v>
@@ -2747,7 +2833,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C32" s="7" t="s">
         <v>29</v>
       </c>
@@ -2764,7 +2850,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C33" s="7" t="s">
         <v>33</v>
       </c>
@@ -2781,9 +2867,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
@@ -2792,16 +2878,16 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="19"/>
       <c r="B37" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
@@ -2809,10 +2895,10 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="19"/>
       <c r="B38" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
@@ -2820,25 +2906,25 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B40" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B41" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
@@ -2847,9 +2933,9 @@
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B44" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C44" s="19"/>
     </row>
@@ -2865,41 +2951,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="19" customWidth="1"/>
     <col min="2" max="2" width="9" style="19"/>
-    <col min="3" max="3" width="16.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
@@ -2916,7 +3002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="23">
         <v>1</v>
       </c>
@@ -2930,7 +3016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="23">
         <v>2</v>
       </c>
@@ -2941,17 +3027,17 @@
         <v>77</v>
       </c>
       <c r="E10" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B14" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -2962,9 +3048,9 @@
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
@@ -2988,40 +3074,40 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="19"/>
-    <col min="3" max="3" width="21.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="25" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
         <v>5</v>
       </c>
@@ -3038,88 +3124,88 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" s="23">
         <v>1</v>
       </c>
       <c r="C10" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="E10" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="E10" s="23" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="19" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="19" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="19" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="19" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="19" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="19" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="19" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="19" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" s="19" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="19" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" s="19" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="19" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3135,27 +3221,27 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="49.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.08984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" s="13"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>40</v>
       </c>
@@ -3172,10 +3258,10 @@
         <v>43</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="52" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>52</v>
       </c>
@@ -3195,7 +3281,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="52" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>47</v>
       </c>
@@ -3215,7 +3301,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="52" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>50</v>
       </c>
@@ -3235,9 +3321,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="52" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="B7" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>44</v>
@@ -3246,44 +3332,44 @@
         <v>45</v>
       </c>
       <c r="E7" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="52" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B8" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>88</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>89</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="52" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="B9" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>48</v>
@@ -3292,21 +3378,21 @@
         <v>46</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="39" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B10" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>48</v>
@@ -3315,39 +3401,39 @@
         <v>45</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="65" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B11" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G11" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>151</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3358,20 +3444,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G12"/>
+  <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="4" max="4" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.90625" customWidth="1"/>
-    <col min="7" max="7" width="27.6328125" customWidth="1"/>
+    <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
         <v>78</v>
       </c>
@@ -3389,7 +3477,7 @@
       </c>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -3401,9 +3489,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="156" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="162" x14ac:dyDescent="0.15">
       <c r="B4" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="14">
         <v>1</v>
@@ -3415,13 +3503,13 @@
         <v>42859</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="104" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="108" x14ac:dyDescent="0.15">
       <c r="B5" s="29"/>
       <c r="C5" s="16">
         <v>2</v>
@@ -3433,13 +3521,13 @@
         <v>42859</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="91" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B6" s="29"/>
       <c r="C6" s="16">
         <v>3</v>
@@ -3451,128 +3539,146 @@
         <v>42859</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="104" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="108" x14ac:dyDescent="0.15">
       <c r="B7" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="16">
         <v>1</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="24">
         <v>42861</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="91" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B8" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="16">
         <v>1</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" s="24">
         <v>42875</v>
       </c>
       <c r="F8" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="91" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B9" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="16">
         <v>2</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" s="24">
         <v>42875</v>
       </c>
       <c r="F9" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="91" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B10" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="16">
         <v>3</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" s="24">
         <v>42875</v>
       </c>
       <c r="F10" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="143" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
-        <v>164</v>
+    </row>
+    <row r="11" spans="2:7" ht="135" x14ac:dyDescent="0.15">
+      <c r="B11" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="C11" s="16">
         <v>1</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="E11" s="24">
         <v>42903</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="52" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
-        <v>165</v>
-      </c>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="B12" s="16"/>
       <c r="C12" s="16">
         <v>2</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="E12" s="24">
         <v>42903</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="24">
+        <v>42925</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
